--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC5A2E-0786-49B8-9E40-7C583E11399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F5600-FAA6-4EF1-810D-025292F001D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -705,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.89200000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="I15">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J15">
         <v>0.83099999999999996</v>
       </c>
-      <c r="J15">
-        <v>0.84899999999999998</v>
-      </c>
       <c r="K15">
-        <v>0.91100000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -731,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.874</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="I16">
-        <v>0.85299999999999998</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J16">
-        <v>0.88300000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K16">
-        <v>0.85599999999999998</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -757,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.85699999999999998</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="I17">
-        <v>0.83399999999999996</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="J17">
-        <v>0.82899999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -783,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.86499999999999999</v>
+        <v>0.874</v>
       </c>
       <c r="I18">
-        <v>0.83799999999999997</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="J18">
-        <v>0.83299999999999996</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="K18">
-        <v>0.88700000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -809,86 +818,86 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J19">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="K19">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K20">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.89200000000000002</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>0.83099999999999996</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>0.84899999999999998</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20">
-        <f>AVERAGE(H15:H19)</f>
-        <v>0.87600000000000011</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20:K20" si="2">AVERAGE(I15:I19)</f>
-        <v>0.83739999999999992</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.8879999999999999</v>
-      </c>
-    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>0.89</v>
+        <f>AVERAGE(H15:H21)</f>
+        <v>0.87642857142857156</v>
       </c>
       <c r="I22">
-        <v>0.84399999999999997</v>
+        <f>AVERAGE(I15:I21)</f>
+        <v>0.83757142857142852</v>
       </c>
       <c r="J22">
-        <v>0.92700000000000005</v>
+        <f>AVERAGE(J15:J21)</f>
+        <v>0.84628571428571431</v>
       </c>
       <c r="K22">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.84</v>
-      </c>
-      <c r="J23">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K23">
-        <v>0.85199999999999998</v>
+        <f>AVERAGE(K15:K21)</f>
+        <v>0.89128571428571413</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -905,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.86499999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I24">
-        <v>0.83399999999999996</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="J24">
-        <v>0.86799999999999999</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K24">
-        <v>0.85</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -931,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.878</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="I25">
-        <v>0.84299999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="J25">
-        <v>0.85</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="K25">
-        <v>0.89200000000000002</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -957,114 +966,108 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.85699999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="I26">
         <v>0.83399999999999996</v>
       </c>
       <c r="J26">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.878</v>
+      </c>
+      <c r="I27">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.85</v>
+      </c>
+      <c r="K27">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J28">
         <v>0.82899999999999996</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H27">
-        <f>AVERAGE(H22:H26)</f>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29">
+        <f>AVERAGE(H24:H28)</f>
         <v>0.87460000000000004</v>
       </c>
-      <c r="I27">
-        <f t="shared" ref="I27:K27" si="3">AVERAGE(I22:I26)</f>
+      <c r="I29">
+        <f t="shared" ref="I29:K29" si="2">AVERAGE(I24:I28)</f>
         <v>0.83899999999999986</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
+      <c r="J29">
+        <f t="shared" si="2"/>
         <v>0.87439999999999996</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
+      <c r="K29">
+        <f t="shared" si="2"/>
         <v>0.86080000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="I35">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="J35">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="K35">
-        <v>0.84299999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I36">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="J36">
-        <v>0.749</v>
-      </c>
-      <c r="K36">
-        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1084,92 +1087,92 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I37">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J37">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K37">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I38">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J38">
+        <v>0.749</v>
+      </c>
+      <c r="K38">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>0.81299999999999994</v>
       </c>
-      <c r="J37">
+      <c r="J39">
         <v>0.86</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H38">
-        <f>AVERAGE(H35:H37)</f>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40">
+        <f>AVERAGE(H37:H39)</f>
         <v>0.82</v>
       </c>
-      <c r="I38">
-        <f t="shared" ref="I38:K38" si="4">AVERAGE(I35:I37)</f>
+      <c r="I40">
+        <f t="shared" ref="I40:K40" si="3">AVERAGE(I37:I39)</f>
         <v>0.81066666666666665</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
+      <c r="J40">
+        <f t="shared" si="3"/>
         <v>0.79899999999999993</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
+      <c r="K40">
+        <f t="shared" si="3"/>
         <v>0.83700000000000008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="I40">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="J40">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="K40">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="b">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>17</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0.83</v>
-      </c>
-      <c r="I41">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="J41">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="K41">
-        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1192,13 +1195,13 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="I42">
-        <v>0.81100000000000005</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="J42">
-        <v>0.87</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="K42">
-        <v>0.80100000000000005</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1218,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.83799999999999997</v>
+        <v>0.83</v>
       </c>
       <c r="I43">
         <v>0.81299999999999994</v>
       </c>
       <c r="J43">
-        <v>0.78900000000000003</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="K43">
-        <v>0.877</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1247,92 +1250,92 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="I44">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J44">
+        <v>0.87</v>
+      </c>
+      <c r="K44">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="I45">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J45">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K45">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0.82</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <v>0.81</v>
       </c>
-      <c r="J44">
+      <c r="J46">
         <v>0.871</v>
       </c>
-      <c r="K44">
+      <c r="K46">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H45">
-        <f>AVERAGE(H40:H44)</f>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47">
+        <f>AVERAGE(H42:H46)</f>
         <v>0.83399999999999996</v>
       </c>
-      <c r="I45">
-        <f t="shared" ref="I45:K45" si="5">AVERAGE(I40:I44)</f>
+      <c r="I47">
+        <f t="shared" ref="I47:K47" si="4">AVERAGE(I42:I46)</f>
         <v>0.81400000000000006</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
+      <c r="J47">
+        <f t="shared" si="4"/>
         <v>0.8448</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
+      <c r="K47">
+        <f t="shared" si="4"/>
         <v>0.81519999999999992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="I47">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="J47">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="K47">
-        <v>0.81899999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="I48">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="J48">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="K48">
-        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1352,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.82599999999999996</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="I49">
-        <v>0.81399999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="J49">
-        <v>0.749</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="K49">
-        <v>0.89900000000000002</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1381,92 +1384,92 @@
         <v>0</v>
       </c>
       <c r="H50">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I50">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J50">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K50">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I51">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J51">
+        <v>0.749</v>
+      </c>
+      <c r="K51">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>0.83199999999999996</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J50">
+      <c r="J52">
         <v>0.85899999999999999</v>
       </c>
-      <c r="K50">
+      <c r="K52">
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H51">
-        <f>AVERAGE(H47:H50)</f>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53">
+        <f>AVERAGE(H49:H52)</f>
         <v>0.82724999999999993</v>
       </c>
-      <c r="I51">
-        <f t="shared" ref="I51:K51" si="6">AVERAGE(I47:I50)</f>
+      <c r="I53">
+        <f t="shared" ref="I53:K53" si="5">AVERAGE(I49:I52)</f>
         <v>0.81899999999999995</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="6"/>
+      <c r="J53">
+        <f t="shared" si="5"/>
         <v>0.8165</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="6"/>
+      <c r="K53">
+        <f t="shared" si="5"/>
         <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="b">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="I53">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="J53">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="K53">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="I54">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="J54">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="K54">
-        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1486,16 +1489,16 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.82499999999999996</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="I55">
-        <v>0.81399999999999995</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="J55">
-        <v>0.77100000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="K55">
-        <v>0.875</v>
+        <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1515,68 +1518,92 @@
         <v>0</v>
       </c>
       <c r="H56">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I56">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J56">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I57">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J57">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K57">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="b">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>0.84</v>
       </c>
-      <c r="I56">
+      <c r="I58">
         <v>0.82</v>
       </c>
-      <c r="J56">
+      <c r="J58">
         <v>0.85099999999999998</v>
       </c>
-      <c r="K56">
+      <c r="K58">
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H57">
-        <f t="shared" ref="H57:I57" si="7">AVERAGE(H53:H56)</f>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59">
+        <f t="shared" ref="H59:I59" si="6">AVERAGE(H55:H58)</f>
         <v>0.83349999999999991</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="7"/>
+      <c r="I59">
+        <f t="shared" si="6"/>
         <v>0.81574999999999998</v>
       </c>
-      <c r="J57">
-        <f>AVERAGE(J53:J56)</f>
+      <c r="J59">
+        <f>AVERAGE(J55:J58)</f>
         <v>0.81950000000000001</v>
       </c>
-      <c r="K57">
-        <f>AVERAGE(K53:K56)</f>
+      <c r="K59">
+        <f>AVERAGE(K55:K58)</f>
         <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1584,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1593,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.90300000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="I61">
-        <v>0.84699999999999998</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="J61">
-        <v>0.91800000000000004</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="K61">
-        <v>0.86599999999999999</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1613,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1622,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.92500000000000004</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="I62">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J62">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K62">
         <v>0.85</v>
-      </c>
-      <c r="J62">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="K62">
-        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1642,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1651,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.88600000000000001</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="I63">
-        <v>0.85199999999999998</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="J63">
-        <v>0.89200000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="K63">
-        <v>0.86699999999999999</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1671,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1680,77 +1707,37 @@
         <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.88400000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I64">
-        <v>0.85</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="J64">
-        <v>0.9</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="K64">
-        <v>0.85399999999999998</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>31</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
       <c r="H65">
-        <v>0.9</v>
+        <f>AVERAGE(H61:H64)</f>
+        <v>0.84974999999999989</v>
       </c>
       <c r="I65">
-        <v>0.86</v>
+        <f t="shared" ref="I65" si="7">AVERAGE(I61:I64)</f>
+        <v>0.83024999999999993</v>
       </c>
       <c r="J65">
-        <v>0.91100000000000003</v>
+        <f>AVERAGE(J61:J64)</f>
+        <v>0.84025000000000005</v>
       </c>
       <c r="K65">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="b">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>31</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="I66">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="J66">
-        <v>0.877</v>
-      </c>
-      <c r="K66">
-        <v>0.873</v>
+        <f>AVERAGE(K61:K64)</f>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1767,153 +1754,870 @@
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0.86099999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I67">
         <v>0.84399999999999997</v>
       </c>
       <c r="J67">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K67">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>31</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I68">
+        <v>0.84</v>
+      </c>
+      <c r="J68">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K68">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="b">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J69">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K69">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.878</v>
+      </c>
+      <c r="I70">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J70">
+        <v>0.85</v>
+      </c>
+      <c r="K70">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I71">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J71">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="K71">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H72">
+        <f>AVERAGE(H67:H71)</f>
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:K72" si="8">AVERAGE(I67:I71)</f>
+        <v>0.83899999999999986</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>0.86080000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.873</v>
+      </c>
+      <c r="I74">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J74">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.874</v>
+      </c>
+      <c r="I75">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J75">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="K75">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.89</v>
+      </c>
+      <c r="I76">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J76">
+        <v>0.872</v>
+      </c>
+      <c r="K76">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="b">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I77">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J77">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K77">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="b">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I78">
+        <v>0.83</v>
+      </c>
+      <c r="J78">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K78">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I79">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J79">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K79">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80">
+        <f>AVERAGE(H74:H79)</f>
+        <v>0.86900000000000011</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80:K80" si="9">AVERAGE(I74:I79)</f>
+        <v>0.84666666666666657</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>0.85966666666666669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I83">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J83">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K83">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="b">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I84">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J84">
+        <v>0.81</v>
+      </c>
+      <c r="K84">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="b">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>37</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0.86</v>
+      </c>
+      <c r="I85">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J85">
+        <v>0.86</v>
+      </c>
+      <c r="K85">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="b">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>37</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J86">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="K86">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88">
+        <f>AVERAGE(H83:H87)</f>
+        <v>0.86224999999999996</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88:J88" si="10">AVERAGE(I83:I87)</f>
+        <v>0.84525000000000006</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>0.83174999999999999</v>
+      </c>
+      <c r="K88">
+        <f>AVERAGE(K83:K87)</f>
+        <v>0.88524999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="b">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I92">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J92">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K92">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I93">
+        <v>0.85</v>
+      </c>
+      <c r="J93">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K93">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J94">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="K94">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I95">
+        <v>0.85</v>
+      </c>
+      <c r="J95">
+        <v>0.9</v>
+      </c>
+      <c r="K95">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0.9</v>
+      </c>
+      <c r="I96">
+        <v>0.86</v>
+      </c>
+      <c r="J96">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K96">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>31</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I97">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J97">
+        <v>0.877</v>
+      </c>
+      <c r="K97">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>31</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J98">
         <v>0.82</v>
       </c>
-      <c r="K67">
+      <c r="K98">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H68">
-        <f>AVERAGE(H61:H67)</f>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H99">
+        <f>AVERAGE(H92:H98)</f>
         <v>0.89171428571428568</v>
       </c>
-      <c r="I68">
-        <f t="shared" ref="I68:K68" si="8">AVERAGE(I61:I67)</f>
+      <c r="I99">
+        <f t="shared" ref="I99:K99" si="11">AVERAGE(I92:I98)</f>
         <v>0.84957142857142876</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="8"/>
+      <c r="J99">
+        <f t="shared" si="11"/>
         <v>0.89171428571428568</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="8"/>
+      <c r="K99">
+        <f t="shared" si="11"/>
         <v>0.87485714285714289</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="b">
-        <v>1</v>
-      </c>
-      <c r="B73">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104">
         <v>21</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="b">
-        <v>1</v>
-      </c>
-      <c r="B74">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105">
         <v>21</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106">
         <v>21</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107">
         <v>21</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="b">
+        <v>1</v>
+      </c>
+      <c r="B108">
         <v>21</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="b">
-        <v>1</v>
-      </c>
-      <c r="B78">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="b">
+        <v>1</v>
+      </c>
+      <c r="B109">
         <v>21</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="b">
-        <v>1</v>
-      </c>
-      <c r="B79">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110">
         <v>21</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F5600-FAA6-4EF1-810D-025292F001D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73192E4B-C619-455A-9D64-EED6567B6ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +102,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,12 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1757,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.89</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="I67">
-        <v>0.84399999999999997</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J67">
-        <v>0.92700000000000005</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="K67">
-        <v>0.83499999999999996</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1786,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.88300000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="I68">
-        <v>0.84</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="J68">
-        <v>0.89800000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="K68">
-        <v>0.85199999999999998</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1815,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.86499999999999999</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="I69">
-        <v>0.83399999999999996</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="J69">
-        <v>0.86799999999999999</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="K69">
-        <v>0.85</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1844,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.878</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="I70">
-        <v>0.84299999999999997</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J70">
-        <v>0.85</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="K70">
-        <v>0.89200000000000002</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1873,182 +1864,182 @@
         <v>0</v>
       </c>
       <c r="H71">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I71">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J71">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K71">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.89</v>
+      </c>
+      <c r="I72">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J72">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K72">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>31</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.84</v>
+      </c>
+      <c r="J73">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K73">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>31</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J74">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K74">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>31</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.878</v>
+      </c>
+      <c r="I75">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J75">
+        <v>0.85</v>
+      </c>
+      <c r="K75">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>31</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>0.85699999999999998</v>
       </c>
-      <c r="I71">
+      <c r="I76">
         <v>0.83399999999999996</v>
       </c>
-      <c r="J71">
+      <c r="J76">
         <v>0.82899999999999996</v>
       </c>
-      <c r="K71">
+      <c r="K76">
         <v>0.875</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H72">
-        <f>AVERAGE(H67:H71)</f>
-        <v>0.87460000000000004</v>
-      </c>
-      <c r="I72">
-        <f t="shared" ref="I72:K72" si="8">AVERAGE(I67:I71)</f>
-        <v>0.83899999999999986</v>
-      </c>
-      <c r="J72">
+    <row r="77" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H77">
+        <f t="shared" ref="H77:J77" si="8">AVERAGE(H67:H76)</f>
+        <v>0.86820000000000008</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="8"/>
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="K72">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="8"/>
-        <v>0.86080000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="74" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="b">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>35</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0.873</v>
-      </c>
-      <c r="I74">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J74">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K74">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>35</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0.874</v>
-      </c>
-      <c r="I75">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J75">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="K75">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>35</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0.89</v>
-      </c>
-      <c r="I76">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="J76">
-        <v>0.872</v>
-      </c>
-      <c r="K76">
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>35</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="I77">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="J77">
-        <v>0.80900000000000005</v>
+        <v>0.86470000000000002</v>
       </c>
       <c r="K77">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="b">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>35</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="I78">
-        <v>0.83</v>
-      </c>
-      <c r="J78">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="K78">
-        <v>0.77900000000000003</v>
-      </c>
-    </row>
+        <f>AVERAGE(K67:K76)</f>
+        <v>0.86050000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="79" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="b">
         <v>1</v>
@@ -2066,153 +2057,182 @@
         <v>0</v>
       </c>
       <c r="H79">
+        <v>0.873</v>
+      </c>
+      <c r="I79">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J79">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K79">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="b">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.874</v>
+      </c>
+      <c r="I80">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J80">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="K80">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="b">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.89</v>
+      </c>
+      <c r="I81">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J81">
+        <v>0.872</v>
+      </c>
+      <c r="K81">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="b">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I82">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J82">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K82">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>35</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I83">
+        <v>0.83</v>
+      </c>
+      <c r="J83">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K83">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="b">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>0.86199999999999999</v>
       </c>
-      <c r="I79">
+      <c r="I84">
         <v>0.84499999999999997</v>
       </c>
-      <c r="J79">
+      <c r="J84">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K79">
+      <c r="K84">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H80">
-        <f>AVERAGE(H74:H79)</f>
+    <row r="85" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H85">
+        <f>AVERAGE(H79:H84)</f>
         <v>0.86900000000000011</v>
       </c>
-      <c r="I80">
-        <f t="shared" ref="I80:K80" si="9">AVERAGE(I74:I79)</f>
+      <c r="I85">
+        <f t="shared" ref="I85:K85" si="9">AVERAGE(I79:I84)</f>
         <v>0.84666666666666657</v>
       </c>
-      <c r="J80">
+      <c r="J85">
         <f t="shared" si="9"/>
         <v>0.86950000000000005</v>
       </c>
-      <c r="K80">
+      <c r="K85">
         <f t="shared" si="9"/>
         <v>0.85966666666666669</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="b">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>37</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="I83">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="J83">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="K83">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="b">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>37</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I84">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="J84">
-        <v>0.81</v>
-      </c>
-      <c r="K84">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="b">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>37</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0.86</v>
-      </c>
-      <c r="I85">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J85">
-        <v>0.86</v>
-      </c>
-      <c r="K85">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>37</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="I86">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="J86">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="K86">
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
+    <row r="86" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="b">
         <v>1</v>
@@ -2229,87 +2249,122 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="2"/>
+      <c r="H87">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I87">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J87">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K87">
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>37</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
       <c r="H88">
-        <f>AVERAGE(H83:H87)</f>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I88">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J88">
+        <v>0.81</v>
+      </c>
+      <c r="K88">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0.86</v>
+      </c>
+      <c r="I89">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.86</v>
+      </c>
+      <c r="K89">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="b">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>37</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I90">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J90">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="K90">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H91">
+        <f>AVERAGE(H87:H90)</f>
         <v>0.86224999999999996</v>
       </c>
-      <c r="I88">
-        <f t="shared" ref="I88:J88" si="10">AVERAGE(I83:I87)</f>
+      <c r="I91">
+        <f>AVERAGE(I87:I90)</f>
         <v>0.84525000000000006</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="10"/>
+      <c r="J91">
+        <f>AVERAGE(J87:J90)</f>
         <v>0.83174999999999999</v>
       </c>
-      <c r="K88">
-        <f>AVERAGE(K83:K87)</f>
+      <c r="K91">
+        <f>AVERAGE(K87:K90)</f>
         <v>0.88524999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" t="s">
-        <v>6</v>
-      </c>
-      <c r="K91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>31</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="I92">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="J92">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="K92">
-        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2317,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2326,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.92500000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="I93">
-        <v>0.85</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J93">
-        <v>0.92400000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="K93">
-        <v>0.89500000000000002</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2346,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2355,19 +2410,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0.88600000000000001</v>
       </c>
       <c r="I94">
-        <v>0.85199999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="J94">
-        <v>0.89200000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="K94">
-        <v>0.86699999999999999</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2375,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2384,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0.88400000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="I95">
-        <v>0.85</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J95">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="K95">
-        <v>0.85399999999999998</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2413,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0.9</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I96">
-        <v>0.86</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="J96">
-        <v>0.91100000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="K96">
-        <v>0.873</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2433,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2442,85 +2497,153 @@
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.88300000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="I97">
-        <v>0.84399999999999997</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J97">
-        <v>0.877</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="K97">
-        <v>0.873</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="b">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>31</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
       <c r="H98">
-        <v>0.86099999999999999</v>
+        <f>AVERAGE(H87:H97)</f>
+        <v>0.87312499999999993</v>
       </c>
       <c r="I98">
-        <v>0.84399999999999997</v>
+        <f>AVERAGE(I87:I97)</f>
+        <v>0.84802500000000003</v>
       </c>
       <c r="J98">
-        <v>0.82</v>
+        <f>AVERAGE(J87:J97)</f>
+        <v>0.84277499999999994</v>
       </c>
       <c r="K98">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H99">
-        <f>AVERAGE(H92:H98)</f>
-        <v>0.89171428571428568</v>
-      </c>
-      <c r="I99">
-        <f t="shared" ref="I99:K99" si="11">AVERAGE(I92:I98)</f>
-        <v>0.84957142857142876</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="11"/>
-        <v>0.89171428571428568</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="11"/>
-        <v>0.87485714285714289</v>
+        <f>AVERAGE(K87:K97)</f>
+        <v>0.892625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>45</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I100">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J100">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K100">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="b">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I101">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J101">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K101">
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
-        <v>13</v>
+      <c r="A102" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>45</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I102">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J102">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="K102">
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>3</v>
+      <c r="A103" t="b">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>45</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I103">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J103">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K103">
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2528,96 +2651,417 @@
         <v>1</v>
       </c>
       <c r="B104">
+        <v>45</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I104">
+        <v>0.86</v>
+      </c>
+      <c r="J104">
+        <v>0.879</v>
+      </c>
+      <c r="K104">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H105">
+        <f>AVERAGE(H93:H103)</f>
+        <v>0.8899125</v>
+      </c>
+      <c r="I105">
+        <f>AVERAGE(I93:I103)</f>
+        <v>0.85510249999999988</v>
+      </c>
+      <c r="J105">
+        <f>AVERAGE(J93:J103)</f>
+        <v>0.86907750000000006</v>
+      </c>
+      <c r="K105">
+        <f>AVERAGE(K93:K103)</f>
+        <v>0.89626249999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" t="s">
+        <v>5</v>
+      </c>
+      <c r="J116" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="b">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I117">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J117">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K117">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="b">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I118">
+        <v>0.85</v>
+      </c>
+      <c r="J118">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K118">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="b">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>31</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I119">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J119">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="K119">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="b">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>31</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I120">
+        <v>0.85</v>
+      </c>
+      <c r="J120">
+        <v>0.9</v>
+      </c>
+      <c r="K120">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="b">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0.9</v>
+      </c>
+      <c r="I121">
+        <v>0.86</v>
+      </c>
+      <c r="J121">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K121">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="b">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>31</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I122">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J122">
+        <v>0.877</v>
+      </c>
+      <c r="K122">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="b">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>31</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J123">
+        <v>0.82</v>
+      </c>
+      <c r="K123">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H124">
+        <f>AVERAGE(H117:H123)</f>
+        <v>0.89171428571428568</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ref="I124:K124" si="10">AVERAGE(I117:I123)</f>
+        <v>0.84957142857142876</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="10"/>
+        <v>0.89171428571428568</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
+        <v>0.87485714285714289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="b">
+        <v>1</v>
+      </c>
+      <c r="B129">
         <v>21</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="b">
-        <v>1</v>
-      </c>
-      <c r="B105">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="b">
+        <v>1</v>
+      </c>
+      <c r="B130">
         <v>21</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" t="b">
-        <v>1</v>
-      </c>
-      <c r="B106">
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="b">
+        <v>1</v>
+      </c>
+      <c r="B131">
         <v>21</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" t="b">
-        <v>1</v>
-      </c>
-      <c r="B107">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="b">
+        <v>1</v>
+      </c>
+      <c r="B132">
         <v>21</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" t="b">
-        <v>1</v>
-      </c>
-      <c r="B108">
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="b">
+        <v>1</v>
+      </c>
+      <c r="B133">
         <v>21</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" t="b">
-        <v>1</v>
-      </c>
-      <c r="B109">
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="b">
+        <v>1</v>
+      </c>
+      <c r="B134">
         <v>21</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="b">
-        <v>1</v>
-      </c>
-      <c r="B110">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="b">
+        <v>1</v>
+      </c>
+      <c r="B135">
         <v>21</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="b">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" t="b">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73192E4B-C619-455A-9D64-EED6567B6ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C618D407-C022-4163-8972-D53B2D3E9624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2693,6 +2693,151 @@
         <v>0.89626249999999996</v>
       </c>
     </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="b">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0.872</v>
+      </c>
+      <c r="I108">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J108">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K108">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="b">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>55</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I109">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J109">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="K109">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I110">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J110">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K110">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="b">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>55</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I111">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J111">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K111">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="b">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>55</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I112">
+        <v>0.85</v>
+      </c>
+      <c r="J112">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K112">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>11</v>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714ADC4-E46A-4253-B801-4F1C1DF2ABF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37092630-E0A8-4C48-9F81-390C4C89C9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -731,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="K16">
         <v>0.88700000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="J16">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -757,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.84699999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="I17">
-        <v>0.82299999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="J17">
-        <v>0.79700000000000004</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="K17">
-        <v>0.88700000000000001</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -783,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.88</v>
+        <v>0.873</v>
       </c>
       <c r="I18">
-        <v>0.83</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="J18">
-        <v>0.91400000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="K18">
-        <v>0.82499999999999996</v>
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -809,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.873</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="I19">
-        <v>0.84399999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="J19">
-        <v>0.89600000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="K19">
-        <v>0.83799999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -835,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.85599999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="I20">
-        <v>0.83799999999999997</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="J20">
-        <v>0.85</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="K20">
-        <v>0.85399999999999998</v>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -861,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.88</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="I21">
-        <v>0.84099999999999997</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J21">
-        <v>0.93700000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="K21">
-        <v>0.80800000000000005</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -887,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.88100000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="I22">
-        <v>0.83699999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="J22">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="K22">
-        <v>0.874</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -913,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.875</v>
+        <v>0.873</v>
       </c>
       <c r="I23">
-        <v>0.82699999999999996</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="J23">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K23">
-        <v>0.89100000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -939,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.873</v>
+        <v>0.876</v>
       </c>
       <c r="I24">
-        <v>0.84499999999999997</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="J24">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K24">
-        <v>0.85499999999999998</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -965,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.876</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="I25">
-        <v>0.83599999999999997</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J25">
-        <v>0.86</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="K25">
-        <v>0.875</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -991,34 +1000,94 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.84899999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="I26">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K26">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I27">
         <v>0.83699999999999997</v>
       </c>
-      <c r="J26">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="K26">
-        <v>0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H27">
-        <f>AVERAGE(H14:H26)</f>
-        <v>0.86991666666666667</v>
-      </c>
-      <c r="I27">
-        <f>AVERAGE(I14:I26)</f>
-        <v>0.83616666666666672</v>
-      </c>
       <c r="J27">
-        <f t="shared" ref="I27:K27" si="2">AVERAGE(J14:J26)</f>
-        <v>0.86758333333333326</v>
+        <v>0.87</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>0.85841666666666672</v>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.875</v>
+      </c>
+      <c r="I28">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.84</v>
+      </c>
+      <c r="K28">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.873</v>
+      </c>
+      <c r="I29">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J29">
+        <v>0.88</v>
+      </c>
+      <c r="K29">
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1029,22 +1098,19 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.89</v>
-      </c>
-      <c r="I30">
-        <v>0.84399999999999997</v>
+        <v>0.876</v>
       </c>
       <c r="J30">
-        <v>0.92700000000000005</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="K30">
-        <v>0.83499999999999996</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1055,245 +1121,340 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.88300000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="I31">
-        <v>0.84</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J31">
-        <v>0.89800000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="K31">
-        <v>0.85199999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.83</v>
+      </c>
+      <c r="J32">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="K32">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33">
+        <f>AVERAGE(H15:H32)</f>
+        <v>0.87088888888888893</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(I15:I32)</f>
+        <v>0.83676470588235297</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(J15:J32)</f>
+        <v>0.86549999999999994</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE(K15:K32)</f>
+        <v>0.8576111111111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.83</v>
+      </c>
+      <c r="J35">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="J36">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K36">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="J37">
         <v>0.86499999999999999</v>
       </c>
-      <c r="I32">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="J32">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="K32">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.878</v>
-      </c>
-      <c r="I33">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="J33">
-        <v>0.85</v>
-      </c>
-      <c r="K33">
-        <v>0.89200000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I34">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="J34">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="K34">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H35">
-        <f>AVERAGE(H30:H34)</f>
-        <v>0.87460000000000004</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ref="I35:K35" si="3">AVERAGE(I30:I34)</f>
-        <v>0.83899999999999986</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
-        <v>0.86080000000000001</v>
+      <c r="K37">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I38">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J38">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K38">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I39">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J39">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="K39">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J40">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.82</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I41">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J41">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K41">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42">
+        <f>AVERAGE(H35:H41)</f>
+        <v>0.85442857142857132</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:K42" si="2">AVERAGE(I35:I41)</f>
+        <v>0.82985714285714274</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.84485714285714286</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0.85457142857142865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
         <v>3</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>15</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0.82</v>
       </c>
-      <c r="I43">
+      <c r="I46">
         <v>0.80300000000000005</v>
       </c>
-      <c r="J43">
+      <c r="J46">
         <v>0.84699999999999998</v>
       </c>
-      <c r="K43">
+      <c r="K46">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B44">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>15</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>0.82299999999999995</v>
       </c>
-      <c r="I44">
+      <c r="I47">
         <v>0.80900000000000005</v>
       </c>
-      <c r="J44">
+      <c r="J47">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K44">
+      <c r="K47">
         <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>15</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="I45">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="J45">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="K45">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H46">
-        <f>AVERAGE(H43:H45)</f>
-        <v>0.81933333333333325</v>
-      </c>
-      <c r="I46">
-        <f t="shared" ref="I46:K46" si="4">AVERAGE(I43:I45)</f>
-        <v>0.80533333333333346</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.81600000000000017</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="4"/>
-        <v>0.81666666666666676</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1301,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1313,74 +1474,34 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.81100000000000005</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I48">
-        <v>0.80100000000000005</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="J48">
-        <v>0.73</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="K48">
-        <v>0.88800000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>17</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
       <c r="H49">
-        <v>0.81200000000000006</v>
+        <f>AVERAGE(H46:H48)</f>
+        <v>0.81933333333333325</v>
       </c>
       <c r="I49">
-        <v>0.79700000000000004</v>
+        <f t="shared" ref="I49:K49" si="3">AVERAGE(I46:I48)</f>
+        <v>0.80533333333333346</v>
       </c>
       <c r="J49">
-        <v>0.71699999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.81600000000000017</v>
       </c>
       <c r="K49">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="I50">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="J50">
-        <v>0.754</v>
-      </c>
-      <c r="K50">
-        <v>0.871</v>
+        <f t="shared" si="3"/>
+        <v>0.81666666666666676</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1400,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.80600000000000005</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="I51">
-        <v>0.80200000000000005</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="J51">
-        <v>0.80400000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="K51">
-        <v>0.80700000000000005</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1429,34 +1550,74 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.82399999999999995</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="I52">
-        <v>0.81299999999999994</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="J52">
-        <v>0.82499999999999996</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="K52">
-        <v>0.81899999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
       <c r="H53">
-        <f>AVERAGE(H48:H52)</f>
-        <v>0.8136000000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53:K53" si="5">AVERAGE(I48:I52)</f>
-        <v>0.80300000000000016</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="J53">
-        <f t="shared" si="5"/>
-        <v>0.76600000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
-        <v>0.85719999999999996</v>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I54">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J54">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K54">
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1464,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1476,74 +1637,34 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.84599999999999997</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="I55">
-        <v>0.81200000000000006</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="J55">
-        <v>0.83899999999999997</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="K55">
-        <v>0.84</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="b">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>19</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56">
-        <v>0.82099999999999995</v>
+        <f>AVERAGE(H51:H55)</f>
+        <v>0.8136000000000001</v>
       </c>
       <c r="I56">
-        <v>0.80600000000000005</v>
+        <f t="shared" ref="I56:K56" si="4">AVERAGE(I51:I55)</f>
+        <v>0.80300000000000016</v>
       </c>
       <c r="J56">
-        <v>0.85199999999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K56">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="b">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="I57">
-        <v>0.81</v>
-      </c>
-      <c r="J57">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="K57">
-        <v>0.871</v>
+        <f t="shared" si="4"/>
+        <v>0.85719999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1563,34 +1684,74 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.82499999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="I58">
-        <v>0.8</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="J58">
-        <v>0.75800000000000001</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="K58">
-        <v>0.88300000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
       <c r="H59">
-        <f>AVERAGE(H55:H58)</f>
-        <v>0.83099999999999996</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="I59">
-        <f t="shared" ref="I59:K59" si="6">AVERAGE(I55:I58)</f>
-        <v>0.80699999999999994</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="J59">
-        <f t="shared" si="6"/>
-        <v>0.80824999999999991</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K59">
-        <f t="shared" si="6"/>
-        <v>0.84475</v>
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="b">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I60">
+        <v>0.81</v>
+      </c>
+      <c r="J60">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K60">
+        <v>0.871</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1598,194 +1759,154 @@
         <v>1</v>
       </c>
       <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I61">
+        <v>0.8</v>
+      </c>
+      <c r="J61">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62">
+        <f>AVERAGE(H58:H61)</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:K62" si="5">AVERAGE(I58:I61)</f>
+        <v>0.80699999999999994</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>0.80824999999999991</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0.84475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64">
         <v>21</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0.84299999999999997</v>
       </c>
-      <c r="I61">
+      <c r="I64">
         <v>0.81899999999999995</v>
       </c>
-      <c r="J61">
+      <c r="J64">
         <v>0.82099999999999995</v>
       </c>
-      <c r="K61">
+      <c r="K64">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65">
         <v>21</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>0.83699999999999997</v>
       </c>
-      <c r="I62">
+      <c r="I65">
         <v>0.81499999999999995</v>
       </c>
-      <c r="J62">
+      <c r="J65">
         <v>0.79400000000000004</v>
       </c>
-      <c r="K62">
+      <c r="K65">
         <v>0.871</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="b">
-        <v>1</v>
-      </c>
-      <c r="B63">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>21</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>0.80200000000000005</v>
       </c>
-      <c r="I63">
+      <c r="I66">
         <v>0.80100000000000005</v>
       </c>
-      <c r="J63">
+      <c r="J66">
         <v>0.78100000000000003</v>
       </c>
-      <c r="K63">
+      <c r="K66">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H64">
-        <f>AVERAGE(H61:H63)</f>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H67">
+        <f>AVERAGE(H64:H66)</f>
         <v>0.82733333333333337</v>
       </c>
-      <c r="I64">
-        <f>AVERAGE(I61:I63)</f>
+      <c r="I67">
+        <f>AVERAGE(I64:I66)</f>
         <v>0.81166666666666665</v>
       </c>
-      <c r="J64">
-        <f>AVERAGE(J61:J63)</f>
+      <c r="J67">
+        <f>AVERAGE(J64:J66)</f>
         <v>0.79866666666666664</v>
       </c>
-      <c r="K64">
-        <f>AVERAGE(K61:K63)</f>
+      <c r="K67">
+        <f>AVERAGE(K64:K66)</f>
         <v>0.84966666666666668</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="b">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>23</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="I66">
-        <v>0.83</v>
-      </c>
-      <c r="J66">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="K66">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="I67">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="J67">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="K67">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>23</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="I68">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="J68">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="K68">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="b">
         <v>1</v>
       </c>
@@ -1802,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.84399999999999997</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="I69">
-        <v>0.82399999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="J69">
-        <v>0.85199999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="K69">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="b">
         <v>1</v>
       </c>
@@ -1831,88 +1952,124 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.85599999999999998</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="I70">
         <v>0.82599999999999996</v>
       </c>
       <c r="J70">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="K70">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I71">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J71">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K71">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I72">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J72">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="K72">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I73">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J73">
         <v>0.84599999999999997</v>
       </c>
-      <c r="K70">
+      <c r="K73">
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="H71">
-        <f>AVERAGE(H66:H70)</f>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H74">
+        <f>AVERAGE(H69:H73)</f>
         <v>0.85099999999999998</v>
       </c>
-      <c r="I71">
-        <f t="shared" ref="I71:K71" si="7">AVERAGE(I66:I70)</f>
+      <c r="I74">
+        <f t="shared" ref="I74:K74" si="6">AVERAGE(I69:I73)</f>
         <v>0.82479999999999998</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="7"/>
+      <c r="J74">
+        <f t="shared" si="6"/>
         <v>0.83560000000000001</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="7"/>
+      <c r="K74">
+        <f t="shared" si="6"/>
         <v>0.85559999999999992</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="b">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="b">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>25</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="b">
         <v>1</v>
       </c>
@@ -1929,109 +2086,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="H77" t="e">
-        <f>AVERAGE(H73:H76)</f>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="b">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="b">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" t="e">
+        <f>AVERAGE(H76:H79)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" t="e">
-        <f t="shared" ref="I77" si="8">AVERAGE(I73:I76)</f>
+      <c r="I80" t="e">
+        <f t="shared" ref="I80" si="7">AVERAGE(I76:I79)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77" t="e">
-        <f>AVERAGE(J73:J76)</f>
+      <c r="J80" t="e">
+        <f>AVERAGE(J76:J79)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K77" t="e">
-        <f>AVERAGE(K73:K76)</f>
+      <c r="K80" t="e">
+        <f>AVERAGE(K76:K79)</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="b">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>31</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="O79">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="P79">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="Q79">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="b">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>31</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0.877</v>
-      </c>
-      <c r="O80">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="P80">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="Q80">
-        <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="b">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>31</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" t="b">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="O81">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="P81">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="Q81">
-        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -2050,18 +2171,6 @@
       <c r="E82" t="b">
         <v>0</v>
       </c>
-      <c r="N82">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="O82">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="P82">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="Q82">
-        <v>0.84599999999999997</v>
-      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="b">
@@ -2079,18 +2188,6 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="N83">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="O83">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="P83">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="Q83">
-        <v>0.88200000000000001</v>
-      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="b">
@@ -2108,18 +2205,6 @@
       <c r="E84" t="b">
         <v>0</v>
       </c>
-      <c r="N84">
-        <v>0.89</v>
-      </c>
-      <c r="O84">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="P84">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="Q84">
-        <v>0.83499999999999996</v>
-      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="b">
@@ -2137,18 +2222,6 @@
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="N85">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="O85">
-        <v>0.84</v>
-      </c>
-      <c r="P85">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="Q85">
-        <v>0.85199999999999998</v>
-      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="b">
@@ -2166,18 +2239,6 @@
       <c r="E86" t="b">
         <v>0</v>
       </c>
-      <c r="N86">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="O86">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="P86">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="Q86">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="b">
@@ -2195,18 +2256,6 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="N87">
-        <v>0.878</v>
-      </c>
-      <c r="O87">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="P87">
-        <v>0.85</v>
-      </c>
-      <c r="Q87">
-        <v>0.89200000000000002</v>
-      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="b">
@@ -2224,126 +2273,139 @@
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="N88">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="O88">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="P88">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="Q88">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H89" t="e">
-        <f t="shared" ref="H89:J89" si="9">AVERAGE(H79:H88)</f>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>31</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="O89">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="P89">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="Q89">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="b">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0.877</v>
+      </c>
+      <c r="O90">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="P90">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Q90">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>31</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="O91">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P91">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Q91">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="H92" t="e">
+        <f t="shared" ref="H92:J92" si="8">AVERAGE(H82:H91)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I89" t="e">
-        <f t="shared" si="9"/>
+      <c r="I92" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J89" t="e">
-        <f t="shared" si="9"/>
+      <c r="J92" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K89" t="e">
-        <f>AVERAGE(K79:K88)</f>
+      <c r="K92" t="e">
+        <f>AVERAGE(K82:K91)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="91" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="b">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>35</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0.873</v>
-      </c>
-      <c r="I91">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J91">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K91">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>35</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0.874</v>
-      </c>
-      <c r="I92">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J92">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="K92">
+      <c r="N92">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="O92">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="P92">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="Q92">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="N93">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="b">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>35</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0.89</v>
-      </c>
-      <c r="I93">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="J93">
-        <v>0.872</v>
-      </c>
-      <c r="K93">
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O93">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="P93">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="Q93">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="b">
         <v>1</v>
       </c>
@@ -2360,19 +2422,31 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.86399999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="I94">
-        <v>0.85099999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J94">
-        <v>0.80900000000000005</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="K94">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N94">
+        <v>0.89</v>
+      </c>
+      <c r="O94">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="P94">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="Q94">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="b">
         <v>1</v>
       </c>
@@ -2389,19 +2463,31 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.85099999999999998</v>
+        <v>0.874</v>
       </c>
       <c r="I95">
-        <v>0.83</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J95">
-        <v>0.91600000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="K95">
-        <v>0.77900000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="N95">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="O95">
+        <v>0.84</v>
+      </c>
+      <c r="P95">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Q95">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="b">
         <v>1</v>
       </c>
@@ -2418,125 +2504,161 @@
         <v>0</v>
       </c>
       <c r="H96">
+        <v>0.89</v>
+      </c>
+      <c r="I96">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J96">
+        <v>0.872</v>
+      </c>
+      <c r="K96">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="N96">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="O96">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="P96">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="Q96">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>35</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J97">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K97">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N97">
+        <v>0.878</v>
+      </c>
+      <c r="O97">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P97">
+        <v>0.85</v>
+      </c>
+      <c r="Q97">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I98">
+        <v>0.83</v>
+      </c>
+      <c r="J98">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K98">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="N98">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="O98">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="P98">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="Q98">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>35</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>0.86199999999999999</v>
       </c>
-      <c r="I96">
+      <c r="I99">
         <v>0.84499999999999997</v>
       </c>
-      <c r="J96">
+      <c r="J99">
         <v>0.83299999999999996</v>
       </c>
-      <c r="K96">
+      <c r="K99">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H97">
-        <f>AVERAGE(H91:H96)</f>
+    <row r="100" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H100">
+        <f>AVERAGE(H94:H99)</f>
         <v>0.86900000000000011</v>
       </c>
-      <c r="I97">
-        <f t="shared" ref="I97:K97" si="10">AVERAGE(I91:I96)</f>
+      <c r="I100">
+        <f t="shared" ref="I100:K100" si="9">AVERAGE(I94:I99)</f>
         <v>0.84666666666666657</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="10"/>
+      <c r="J100">
+        <f t="shared" si="9"/>
         <v>0.86950000000000005</v>
       </c>
-      <c r="K97">
-        <f t="shared" si="10"/>
+      <c r="K100">
+        <f t="shared" si="9"/>
         <v>0.85966666666666669</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="b">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>37</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="I99">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="J99">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="K99">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>37</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I100">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="J100">
-        <v>0.81</v>
-      </c>
-      <c r="K100">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="b">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>37</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0.86</v>
-      </c>
-      <c r="I101">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J101">
-        <v>0.86</v>
-      </c>
-      <c r="K101">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="b">
         <v>1</v>
       </c>
@@ -2553,124 +2675,125 @@
         <v>0</v>
       </c>
       <c r="H102">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I102">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J102">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="K102">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="b">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J103">
+        <v>0.81</v>
+      </c>
+      <c r="K103">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>37</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.86</v>
+      </c>
+      <c r="I104">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J104">
+        <v>0.86</v>
+      </c>
+      <c r="K104">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
         <v>0.86899999999999999</v>
-      </c>
-      <c r="I102">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="J102">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="K102">
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H103">
-        <f>AVERAGE(H99:H102)</f>
-        <v>0.86224999999999996</v>
-      </c>
-      <c r="I103">
-        <f>AVERAGE(I99:I102)</f>
-        <v>0.84525000000000006</v>
-      </c>
-      <c r="J103">
-        <f>AVERAGE(J99:J102)</f>
-        <v>0.83174999999999999</v>
-      </c>
-      <c r="K103">
-        <f>AVERAGE(K99:K102)</f>
-        <v>0.88524999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="b">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>41</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0.875</v>
       </c>
       <c r="I105">
         <v>0.84899999999999998</v>
       </c>
       <c r="J105">
-        <v>0.84</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="K105">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" t="b">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>41</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="b">
-        <v>0</v>
-      </c>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H106">
-        <v>0.88600000000000001</v>
+        <f>AVERAGE(H102:H105)</f>
+        <v>0.86224999999999996</v>
       </c>
       <c r="I106">
-        <v>0.86</v>
+        <f>AVERAGE(I102:I105)</f>
+        <v>0.84525000000000006</v>
       </c>
       <c r="J106">
-        <v>0.86</v>
+        <f>AVERAGE(J102:J105)</f>
+        <v>0.83174999999999999</v>
       </c>
       <c r="K106">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" t="b">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>41</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I107">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="J107">
-        <v>0.87</v>
-      </c>
-      <c r="K107">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <f>AVERAGE(K102:K105)</f>
+        <v>0.88524999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="b">
         <v>1</v>
       </c>
@@ -2687,19 +2810,19 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.90900000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="I108">
-        <v>0.85299999999999998</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J108">
-        <v>0.88700000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K108">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="b">
         <v>1</v>
       </c>
@@ -2716,121 +2839,121 @@
         <v>0</v>
       </c>
       <c r="H109">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I109">
+        <v>0.86</v>
+      </c>
+      <c r="J109">
+        <v>0.86</v>
+      </c>
+      <c r="K109">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>41</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I110">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J110">
+        <v>0.87</v>
+      </c>
+      <c r="K110">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="b">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>41</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I111">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="J111">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K111">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="b">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>41</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I109">
+      <c r="I112">
         <v>0.83699999999999997</v>
       </c>
-      <c r="J109">
+      <c r="J112">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K109">
+      <c r="K112">
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H110">
-        <f>AVERAGE(H99:H109)</f>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113">
+        <f>AVERAGE(H102:H112)</f>
         <v>0.87312499999999993</v>
       </c>
-      <c r="I110">
-        <f>AVERAGE(I99:I109)</f>
+      <c r="I113">
+        <f>AVERAGE(I102:I112)</f>
         <v>0.84802500000000003</v>
       </c>
-      <c r="J110">
-        <f>AVERAGE(J99:J109)</f>
+      <c r="J113">
+        <f>AVERAGE(J102:J112)</f>
         <v>0.84277499999999994</v>
       </c>
-      <c r="K110">
-        <f>AVERAGE(K99:K109)</f>
+      <c r="K113">
+        <f>AVERAGE(K102:K112)</f>
         <v>0.892625</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" t="b">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>45</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="I112">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="J112">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="K112">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" t="b">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>45</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I113">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J113">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="K113">
-        <v>0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="b">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>45</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="I114">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="J114">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="K114">
-        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2850,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0.90500000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="I115">
-        <v>0.86399999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="J115">
-        <v>0.92800000000000005</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="K115">
-        <v>0.86699999999999999</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2879,121 +3002,121 @@
         <v>0</v>
       </c>
       <c r="H116">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I116">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J116">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K116">
         <v>0.88400000000000001</v>
       </c>
-      <c r="I116">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="b">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>45</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I117">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J117">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="K117">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="b">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>45</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I118">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J118">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K118">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="b">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>45</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I119">
         <v>0.86</v>
       </c>
-      <c r="J116">
+      <c r="J119">
         <v>0.879</v>
       </c>
-      <c r="K116">
+      <c r="K119">
         <v>0.879</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H117">
-        <f>AVERAGE(H105:H115)</f>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H120">
+        <f>AVERAGE(H108:H118)</f>
         <v>0.8899125</v>
       </c>
-      <c r="I117">
-        <f>AVERAGE(I105:I115)</f>
+      <c r="I120">
+        <f>AVERAGE(I108:I118)</f>
         <v>0.85510249999999988</v>
       </c>
-      <c r="J117">
-        <f>AVERAGE(J105:J115)</f>
+      <c r="J120">
+        <f>AVERAGE(J108:J118)</f>
         <v>0.86907750000000006</v>
       </c>
-      <c r="K117">
-        <f>AVERAGE(K105:K115)</f>
+      <c r="K120">
+        <f>AVERAGE(K108:K118)</f>
         <v>0.89626249999999996</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" t="b">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>55</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0.872</v>
-      </c>
-      <c r="I120">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="J120">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="K120">
-        <v>0.85299999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" t="b">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>55</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="I121">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J121">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="K121">
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" t="b">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>55</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I122">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="J122">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="K122">
-        <v>0.9</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3013,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0.90300000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="I123">
-        <v>0.84699999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="J123">
-        <v>0.91800000000000004</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="K123">
-        <v>0.86599999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3042,137 +3165,137 @@
         <v>0</v>
       </c>
       <c r="H124">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I124">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J124">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="K124">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="b">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>55</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I125">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J125">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K125">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="b">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>55</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I126">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J126">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K126">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="b">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>55</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I124">
+      <c r="I127">
         <v>0.85</v>
       </c>
-      <c r="J124">
+      <c r="J127">
         <v>0.92400000000000004</v>
       </c>
-      <c r="K124">
+      <c r="K127">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="1" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>2</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>3</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E131" t="s">
         <v>14</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H131" t="s">
         <v>4</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I131" t="s">
         <v>5</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J131" t="s">
         <v>6</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K131" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" t="b">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>31</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="I129">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="J129">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="K129">
-        <v>0.86599999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="b">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>31</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="I130">
-        <v>0.85</v>
-      </c>
-      <c r="J130">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="K130">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" t="b">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>31</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="I131">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="J131">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="K131">
-        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3192,16 +3315,16 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>0.88400000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I132">
-        <v>0.85</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="J132">
-        <v>0.9</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="K132">
-        <v>0.85399999999999998</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3221,16 +3344,16 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.9</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="I133">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J133">
-        <v>0.91100000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="K133">
-        <v>0.873</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3250,16 +3373,16 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>0.88300000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="I134">
-        <v>0.84399999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="J134">
-        <v>0.877</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="K134">
-        <v>0.873</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3279,95 +3402,140 @@
         <v>1</v>
       </c>
       <c r="H135">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I135">
+        <v>0.85</v>
+      </c>
+      <c r="J135">
+        <v>0.9</v>
+      </c>
+      <c r="K135">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="b">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>31</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0.9</v>
+      </c>
+      <c r="I136">
+        <v>0.86</v>
+      </c>
+      <c r="J136">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K136">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="b">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>31</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I137">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J137">
+        <v>0.877</v>
+      </c>
+      <c r="K137">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="b">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>31</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138">
         <v>0.86099999999999999</v>
       </c>
-      <c r="I135">
+      <c r="I138">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J135">
+      <c r="J138">
         <v>0.82</v>
       </c>
-      <c r="K135">
+      <c r="K138">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H136">
-        <f>AVERAGE(H129:H135)</f>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H139">
+        <f>AVERAGE(H132:H138)</f>
         <v>0.89171428571428568</v>
       </c>
-      <c r="I136">
-        <f t="shared" ref="I136:K136" si="11">AVERAGE(I129:I135)</f>
+      <c r="I139">
+        <f t="shared" ref="I139:K139" si="10">AVERAGE(I132:I138)</f>
         <v>0.84957142857142876</v>
       </c>
-      <c r="J136">
-        <f t="shared" si="11"/>
+      <c r="J139">
+        <f t="shared" si="10"/>
         <v>0.89171428571428568</v>
       </c>
-      <c r="K136">
-        <f t="shared" si="11"/>
+      <c r="K139">
+        <f t="shared" si="10"/>
         <v>0.87485714285714289</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
         <v>2</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" t="b">
-        <v>1</v>
-      </c>
-      <c r="B141">
-        <v>21</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="b">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>21</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" t="b">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>21</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3423,6 +3591,48 @@
         <v>0</v>
       </c>
       <c r="D147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="b">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="b">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>21</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="b">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="b">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37092630-E0A8-4C48-9F81-390C4C89C9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F0351-2756-461A-9B57-9FC6673F4824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Standardise</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Mix Channel</t>
+  </si>
+  <si>
+    <t>drop confocal</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -462,6 +465,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.41796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.68359375" bestFit="1" customWidth="1"/>
@@ -3285,6 +3289,9 @@
       <c r="E131" t="s">
         <v>14</v>
       </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
       <c r="H131" t="s">
         <v>4</v>
       </c>
@@ -3314,17 +3321,20 @@
       <c r="E132" t="b">
         <v>1</v>
       </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
       <c r="H132">
-        <v>0.90300000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="I132">
         <v>0.84699999999999998</v>
       </c>
       <c r="J132">
-        <v>0.91800000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="K132">
-        <v>0.86599999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3343,17 +3353,20 @@
       <c r="E133" t="b">
         <v>1</v>
       </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
       <c r="H133">
-        <v>0.92500000000000004</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="I133">
         <v>0.85</v>
       </c>
       <c r="J133">
-        <v>0.92400000000000004</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="K133">
-        <v>0.89500000000000002</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3372,17 +3385,20 @@
       <c r="E134" t="b">
         <v>1</v>
       </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
       <c r="H134">
-        <v>0.88600000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I134">
-        <v>0.85199999999999998</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="J134">
-        <v>0.89200000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="K134">
-        <v>0.86699999999999999</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3401,17 +3417,20 @@
       <c r="E135" t="b">
         <v>1</v>
       </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
       <c r="H135">
-        <v>0.88400000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="I135">
-        <v>0.85</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="J135">
-        <v>0.9</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="K135">
-        <v>0.85399999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3430,17 +3449,20 @@
       <c r="E136" t="b">
         <v>1</v>
       </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
       <c r="H136">
-        <v>0.9</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I136">
-        <v>0.86</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="J136">
-        <v>0.91100000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="K136">
-        <v>0.873</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3459,17 +3481,20 @@
       <c r="E137" t="b">
         <v>1</v>
       </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
       <c r="H137">
-        <v>0.88300000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="I137">
-        <v>0.84399999999999997</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="J137">
-        <v>0.877</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="K137">
-        <v>0.873</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3488,54 +3513,134 @@
       <c r="E138" t="b">
         <v>1</v>
       </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
       <c r="H138">
-        <v>0.86099999999999999</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I138">
-        <v>0.84399999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="J138">
-        <v>0.82</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="K138">
-        <v>0.89600000000000002</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="b">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>31</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
       <c r="H139">
-        <f>AVERAGE(H132:H138)</f>
-        <v>0.89171428571428568</v>
+        <v>0.872</v>
       </c>
       <c r="I139">
-        <f t="shared" ref="I139:K139" si="10">AVERAGE(I132:I138)</f>
-        <v>0.84957142857142876</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J139">
-        <f t="shared" si="10"/>
-        <v>0.89171428571428568</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="K139">
-        <f t="shared" si="10"/>
-        <v>0.87485714285714289</v>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="b">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>31</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I140">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J140">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="K140">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="b">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>31</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I141">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J141">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K141">
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" t="s">
-        <v>3</v>
+      <c r="H142">
+        <f>AVERAGE(H125:H131)</f>
+        <v>0.90566666666666673</v>
+      </c>
+      <c r="I142">
+        <f>AVERAGE(I125:I131)</f>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J142">
+        <f>AVERAGE(J125:J131)</f>
+        <v>0.90333333333333332</v>
+      </c>
+      <c r="K142">
+        <f>AVERAGE(K125:K131)</f>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3543,96 +3648,471 @@
         <v>1</v>
       </c>
       <c r="B144">
+        <v>35</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I144">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J144">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K144">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="b">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>35</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I145">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J145">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K145">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="b">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>35</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0.88</v>
+      </c>
+      <c r="I146">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J146">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="K146">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="b">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>35</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I147">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J147">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="K147">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="b">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I148">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J148">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K148">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H149">
+        <f>AVERAGE(H144:H148)</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="I149">
+        <f t="shared" ref="I149:K149" si="10">AVERAGE(I144:I148)</f>
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="10"/>
+        <v>0.88059999999999994</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="10"/>
+        <v>0.86939999999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="b">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0.876</v>
+      </c>
+      <c r="I151">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="J151">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K151">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="b">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0.88</v>
+      </c>
+      <c r="I152">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J152">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K152">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="b">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>27</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0.874</v>
+      </c>
+      <c r="I153">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J153">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="K153">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="b">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0.873</v>
+      </c>
+      <c r="I154">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J154">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K154">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="b">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I155">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J155">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K155">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H156">
+        <f>AVERAGE(H151:H155)</f>
+        <v>0.87740000000000007</v>
+      </c>
+      <c r="I156">
+        <f t="shared" ref="I156:K156" si="11">AVERAGE(I151:I155)</f>
+        <v>0.84439999999999993</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="11"/>
+        <v>0.87319999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="b">
+        <v>1</v>
+      </c>
+      <c r="B162">
         <v>21</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" t="b">
-        <v>1</v>
-      </c>
-      <c r="B145">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="b">
+        <v>1</v>
+      </c>
+      <c r="B163">
         <v>21</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" t="b">
-        <v>1</v>
-      </c>
-      <c r="B146">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="b">
+        <v>1</v>
+      </c>
+      <c r="B164">
         <v>21</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" t="b">
-        <v>1</v>
-      </c>
-      <c r="B147">
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="b">
+        <v>1</v>
+      </c>
+      <c r="B165">
         <v>21</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" t="b">
-        <v>1</v>
-      </c>
-      <c r="B148">
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="b">
+        <v>1</v>
+      </c>
+      <c r="B166">
         <v>21</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" t="b">
-        <v>1</v>
-      </c>
-      <c r="B149">
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="b">
+        <v>1</v>
+      </c>
+      <c r="B167">
         <v>21</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" t="b">
-        <v>1</v>
-      </c>
-      <c r="B150">
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="b">
+        <v>1</v>
+      </c>
+      <c r="B168">
         <v>21</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150" t="b">
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="b">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F0351-2756-461A-9B57-9FC6673F4824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01163959-CD19-4B5D-8787-A27D83F9BB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Standardise</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="O161" sqref="O161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3999,120 +3999,382 @@
         <v>0.87319999999999998</v>
       </c>
     </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="b">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>31</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I159">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J159">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="K159">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" t="s">
+      <c r="A160" t="b">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>31</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I160">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J160">
+        <v>0.89</v>
+      </c>
+      <c r="K160">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="b">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>31</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I161">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J161">
+        <v>0.89</v>
+      </c>
+      <c r="K161">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="b">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>31</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I162">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J162">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="K162">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="b">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>31</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I163">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J163">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K163">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="b">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>31</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0.878</v>
+      </c>
+      <c r="I164">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="J164">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="K164">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="b">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>31</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I165">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J165">
+        <v>0.873</v>
+      </c>
+      <c r="K165">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H166">
+        <f>AVERAGE(H159:H165)</f>
+        <v>0.88</v>
+      </c>
+      <c r="I166">
+        <f t="shared" ref="I166:K166" si="12">AVERAGE(I159:I165)</f>
+        <v>0.84842857142857142</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="12"/>
+        <v>0.87628571428571433</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="12"/>
+        <v>0.871142857142857</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
         <v>2</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D169" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" t="b">
-        <v>1</v>
-      </c>
-      <c r="B162">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="b">
+        <v>1</v>
+      </c>
+      <c r="B170">
         <v>21</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" t="b">
-        <v>1</v>
-      </c>
-      <c r="B163">
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="b">
+        <v>1</v>
+      </c>
+      <c r="B171">
         <v>21</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" t="b">
-        <v>1</v>
-      </c>
-      <c r="B164">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="b">
+        <v>1</v>
+      </c>
+      <c r="B172">
         <v>21</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" t="b">
-        <v>1</v>
-      </c>
-      <c r="B165">
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="b">
+        <v>1</v>
+      </c>
+      <c r="B173">
         <v>21</v>
       </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" t="b">
-        <v>1</v>
-      </c>
-      <c r="B166">
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="b">
+        <v>1</v>
+      </c>
+      <c r="B174">
         <v>21</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" t="b">
-        <v>1</v>
-      </c>
-      <c r="B167">
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="b">
+        <v>1</v>
+      </c>
+      <c r="B175">
         <v>21</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" t="b">
-        <v>1</v>
-      </c>
-      <c r="B168">
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="b">
+        <v>1</v>
+      </c>
+      <c r="B176">
         <v>21</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168" t="b">
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="b">
         <v>0</v>
       </c>
     </row>

--- a/evaluation/training-evaluation.xlsx
+++ b/evaluation/training-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B784A63-4E5D-4F24-A77B-851BF086D35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF219AEB-E6BF-4FE0-9377-9497F4836D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$T$16:$V$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Model uid</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>Preprpocess</t>
+  </si>
+  <si>
+    <t>temporal</t>
   </si>
 </sst>
 </file>
@@ -116,12 +120,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -129,31 +133,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
-  <dimension ref="A1:W140"/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -480,7 +685,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.68359375" customWidth="1"/>
-    <col min="5" max="5" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" customWidth="1"/>
     <col min="6" max="6" width="4.15625" customWidth="1"/>
     <col min="8" max="11" width="9.15625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.9453125" customWidth="1"/>
@@ -497,2406 +702,2923 @@
     <col min="23" max="23" width="13.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="24">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="34">
         <f t="shared" ref="G2:G31" si="0">A2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="35">
         <v>0.81961899999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="36">
         <v>0.81978700000000004</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="36">
         <v>0.81942899999999996</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="36">
         <v>0.81980900000000001</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="34">
         <f>A28</f>
         <v>26</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="35">
         <v>0.79639000000000004</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="36">
         <v>0.820079</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="36">
         <v>0.76705999999999996</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="36">
         <v>0.82572000000000001</v>
       </c>
-      <c r="S2" s="5">
+      <c r="R2" s="3"/>
+      <c r="S2" s="7">
         <f t="shared" ref="S2:S26" si="1">A2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="10">
         <v>0.75429999999999997</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="10">
         <v>0.33700000000000002</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="10">
         <v>0.88200000000000001</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="10">
         <v>4.4482999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="31">
         <v>0.82237199999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>0.80173000000000005</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="10">
         <v>0.84575500000000003</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <v>0.79898899999999995</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="20">
         <f t="shared" ref="M3:M26" si="2">A3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="31">
         <v>0.79016699999999995</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="10">
         <v>0.79143399999999997</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="10">
         <v>0.78782700000000006</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="10">
         <v>0.79250600000000004</v>
       </c>
-      <c r="S3" s="5">
+      <c r="R3" s="3"/>
+      <c r="S3" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="10">
         <v>0.75434199999999996</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="10">
         <v>0.88194300000000003</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="10">
         <v>0.33711400000000002</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="10">
         <v>4.4482980000000003</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="31">
         <v>0.82373399999999997</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <v>0.84095399999999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="10">
         <v>0.80422700000000003</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="10">
         <v>0.84324200000000005</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="31">
         <v>0.80175300000000005</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="10">
         <v>0.844082</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="10">
         <v>0.75077799999999995</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="10">
         <v>0.85272800000000004</v>
       </c>
-      <c r="S4" s="5">
+      <c r="R4" s="3"/>
+      <c r="S4" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="10">
         <v>0.77422899999999995</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="10">
         <v>0.83016400000000001</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="10">
         <v>0.27050099999999999</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="10">
         <v>3.9807109999999999</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="31">
         <v>0.82491499999999995</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <v>0.88114000000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="10">
         <v>0.761216</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="10">
         <v>0.88861400000000001</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="3"/>
+      <c r="M5" s="20">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="31">
         <v>0.80069199999999996</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="10">
         <v>0.87546900000000005</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="10">
         <v>0.71234600000000003</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="10">
         <v>0.88903799999999999</v>
       </c>
-      <c r="S5" s="5">
+      <c r="R5" s="3"/>
+      <c r="S5" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="10">
         <v>0.766073</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="10">
         <v>0.87617800000000001</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="10">
         <v>0.30142200000000002</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="10">
         <v>4.1421279999999996</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="31">
         <v>0.82968399999999998</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <v>0.82073399999999996</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="10">
         <v>0.83982199999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="10">
         <v>0.819546</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="3"/>
+      <c r="M6" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="31">
         <v>0.80625199999999997</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="10">
         <v>0.78526099999999999</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="10">
         <v>0.83088499999999998</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="10">
         <v>0.78161899999999995</v>
       </c>
-      <c r="S6" s="5">
+      <c r="R6" s="3"/>
+      <c r="S6" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="10">
         <v>0.76505999999999996</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="10">
         <v>0.87920299999999996</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="10">
         <v>0.31832199999999999</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="10">
         <v>4.2450419999999998</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="31">
         <v>0.82369700000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <v>0.83335499999999996</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="10">
         <v>0.81275500000000001</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="10">
         <v>0.83463799999999999</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="3"/>
+      <c r="M7" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="31">
         <v>0.81778399999999996</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="10">
         <v>0.79618999999999995</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="10">
         <v>0.84335199999999999</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="10">
         <v>0.79221699999999995</v>
       </c>
-      <c r="S7" s="5">
+      <c r="R7" s="3"/>
+      <c r="S7" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="10">
         <v>0.77188299999999999</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="10">
         <v>0.90268099999999996</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="10">
         <v>0.31630000000000003</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="10">
         <v>4.3132289999999998</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="13">
         <v>23</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
+      <c r="E8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="32">
         <v>0.81388400000000005</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="30">
         <v>0.80146099999999998</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="30">
         <v>0.82795700000000005</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="30">
         <v>0.79981100000000005</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9">
+      <c r="L8" s="12"/>
+      <c r="M8" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="32">
         <v>0.79445500000000002</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="30">
         <v>0.77217199999999997</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="30">
         <v>0.82010499999999997</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="30">
         <v>0.76880499999999996</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9">
+      <c r="R8" s="12"/>
+      <c r="S8" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="30">
         <v>0.78902600000000001</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="13">
         <v>0.84572000000000003</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="30">
         <v>0.25174400000000002</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="30">
         <v>4.4234850000000003</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="A9" s="19">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>5</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="31">
         <v>0.82188799999999995</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="10">
         <v>0.82765999999999995</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="10">
         <v>0.81535000000000002</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="10">
         <v>0.828426</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="3"/>
+      <c r="M9" s="20">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="31">
         <v>0.79466999999999999</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="10">
         <v>0.77261899999999994</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="10">
         <v>0.82010499999999997</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="10">
         <v>0.76923600000000003</v>
       </c>
-      <c r="S9" s="5">
+      <c r="R9" s="3"/>
+      <c r="S9" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="10">
         <v>0.77348499999999998</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="10">
         <v>0.856402</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="10">
         <v>0.28414800000000001</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="10">
         <v>4.2779699999999998</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <f t="shared" ref="A10:A34" si="3">A9+1</f>
+      <c r="A10" s="19">
+        <f t="shared" ref="A10:A39" si="3">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="31">
         <v>0.82146300000000005</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="10">
         <v>0.78969599999999995</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="10">
         <v>0.85781399999999997</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="10">
         <v>0.785111</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="3"/>
+      <c r="M10" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="31">
         <v>0.82264300000000001</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="10">
         <v>0.80071300000000001</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="10">
         <v>0.84740000000000004</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="10">
         <v>0.79788599999999998</v>
       </c>
-      <c r="S10" s="5">
+      <c r="R10" s="3"/>
+      <c r="S10" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="10">
         <v>0.77632400000000001</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="10">
         <v>0.87990000000000002</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="10">
         <v>0.29889500000000002</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="10">
         <v>4.3168059999999997</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+      <c r="A11" s="19">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="31">
         <v>0.77150300000000005</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="10">
         <v>0.78849800000000003</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="10">
         <v>0.75205599999999995</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="10">
         <v>0.79095000000000004</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="3"/>
+      <c r="M11" s="20">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="31">
         <v>0.80057800000000001</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="10">
         <v>0.806307</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="10">
         <v>0.79413900000000004</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="10">
         <v>0.80701699999999998</v>
       </c>
-      <c r="S11" s="5">
+      <c r="R11" s="3"/>
+      <c r="S11" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="10">
         <v>0.71167899999999995</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="10">
         <v>0.64597499999999997</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="10">
         <v>0.18839</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="10">
         <v>4.8175569999999999</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+      <c r="A12" s="19">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="31">
         <v>0.77210400000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="10">
         <v>0.73088200000000003</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="10">
         <v>0.81925899999999996</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="10">
         <v>0.72494899999999995</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="3"/>
+      <c r="M12" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="31">
         <v>0.78024199999999999</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="10">
         <v>0.80403400000000003</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="10">
         <v>0.75162700000000005</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="10">
         <v>0.80885700000000005</v>
       </c>
-      <c r="S12" s="5">
+      <c r="R12" s="3"/>
+      <c r="S12" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="10">
         <v>0.69457999999999998</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="10">
         <v>0.61674700000000005</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="10">
         <v>0.18387800000000001</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="10">
         <v>5.3275360000000003</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+      <c r="A13" s="19">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="31">
         <v>0.81064199999999997</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="10">
         <v>0.81804900000000003</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="10">
         <v>0.80216799999999999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="10">
         <v>0.81911500000000004</v>
       </c>
-      <c r="M13">
+      <c r="L13" s="3"/>
+      <c r="M13" s="20">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="31">
         <v>0.80096900000000004</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="10">
         <v>0.85998300000000005</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="10">
         <v>0.73106000000000004</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="10">
         <v>0.87087700000000001</v>
       </c>
-      <c r="S13" s="5">
+      <c r="R13" s="3"/>
+      <c r="S13" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="10">
         <v>0.70335800000000004</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="10">
         <v>0.71557599999999999</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="10">
         <v>0.249224</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="10">
         <v>4.441217</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="A14" s="19">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>2</v>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="31">
         <v>0.82324900000000001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="10">
         <v>0.82171000000000005</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="10">
         <v>0.82501000000000002</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="10">
         <v>0.82148900000000002</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="3"/>
+      <c r="M14" s="20">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="31">
         <v>0.80269199999999996</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="10">
         <v>0.82466700000000004</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="10">
         <v>0.77711699999999995</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="10">
         <v>0.82826699999999998</v>
       </c>
-      <c r="S14" s="5">
+      <c r="R14" s="3"/>
+      <c r="S14" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="10">
         <v>0.74226199999999998</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="10">
         <v>0.78203100000000003</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="10">
         <v>0.27028999999999997</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="10">
         <v>5.0468590000000004</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+      <c r="A15" s="19">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>45</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="13">
         <v>2</v>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="31">
         <v>0.81190300000000004</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="10">
         <v>0.81477500000000003</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="10">
         <v>0.80861400000000005</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="10">
         <v>0.815191</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="3"/>
+      <c r="M15" s="20">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="31">
         <v>0.75257600000000002</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="10">
         <v>0.73373299999999997</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="10">
         <v>0.77585099999999996</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="10">
         <v>0.72930099999999998</v>
       </c>
-      <c r="S15" s="5">
+      <c r="R15" s="3"/>
+      <c r="S15" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="10">
         <v>0.71115700000000004</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="10">
         <v>0.85785299999999998</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="10">
         <v>0.386102</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="10">
         <v>5.4143470000000002</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="A16" s="19">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="31">
         <v>0.80840800000000002</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="10">
         <v>0.81319600000000003</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="10">
         <v>0.80292600000000003</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="10">
         <v>0.81389</v>
       </c>
-      <c r="M16">
+      <c r="L16" s="3"/>
+      <c r="M16" s="20">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="31">
         <v>0.75917699999999999</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="10">
         <v>0.82325999999999999</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="10">
         <v>0.68394500000000003</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="10">
         <v>0.83440999999999999</v>
       </c>
-      <c r="S16" s="5">
+      <c r="R16" s="3"/>
+      <c r="S16" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="10">
         <v>0.70934600000000003</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="10">
         <v>0.77773999999999999</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="10">
         <v>0.328677</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="10">
         <v>4.7946330000000001</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="A17" s="19">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>45</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="31">
         <v>0.80730999999999997</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="10">
         <v>0.82854300000000003</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="10">
         <v>0.78301500000000002</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="10">
         <v>0.83162400000000003</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="3"/>
+      <c r="M17" s="20">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="31">
         <v>0.79764299999999999</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="10">
         <v>0.82316199999999995</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="10">
         <v>0.76898699999999998</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="10">
         <v>0.82629900000000001</v>
       </c>
-      <c r="S17" s="5">
+      <c r="R17" s="3"/>
+      <c r="S17" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="10">
         <v>0.76828300000000005</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="10">
         <v>0.83837499999999998</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="10">
         <v>0.28064299999999998</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="10">
         <v>4.5381859999999996</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="A18" s="19">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>21</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="31">
         <v>0.80586899999999995</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="10">
         <v>0.78435999999999995</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="10">
         <v>0.83047099999999996</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="10">
         <v>0.78126700000000004</v>
       </c>
-      <c r="M18">
+      <c r="L18" s="3"/>
+      <c r="M18" s="20">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="31">
         <v>0.78675399999999995</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="10">
         <v>0.82733900000000005</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="10">
         <v>0.73679399999999995</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="10">
         <v>0.83671499999999999</v>
       </c>
-      <c r="S18" s="5">
+      <c r="R18" s="3"/>
+      <c r="S18" s="7">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="10">
         <v>0.77585899999999997</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="10">
         <v>0.85441699999999998</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="10">
         <v>0.28342000000000001</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="10">
         <v>4.1479809999999997</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9">
+      <c r="A19" s="19">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="15">
         <v>3</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="13">
         <v>29</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="13">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9">
+      <c r="E19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="32">
         <v>0.83604299999999998</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="30">
         <v>0.82605899999999999</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="30">
         <v>0.84745800000000004</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="30">
         <v>0.82462800000000003</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9">
+      <c r="L19" s="12"/>
+      <c r="M19" s="19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="32">
         <v>0.80806500000000003</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="30">
         <v>0.810087</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="30">
         <v>0.80633600000000005</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="30">
         <v>0.80979400000000001</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="11">
+      <c r="R19" s="12"/>
+      <c r="S19" s="13">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="30">
         <v>0.77077399999999996</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="30">
         <v>0.83169999999999999</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="30">
         <v>0.26294099999999998</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="30">
         <v>4.7642410000000002</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9">
+      <c r="A20" s="19">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <v>35</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
+      <c r="E20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="32">
         <v>0.82508300000000001</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="30">
         <v>0.83272500000000005</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="30">
         <v>0.81633500000000003</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="30">
         <v>0.83383200000000002</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9">
+      <c r="L20" s="12"/>
+      <c r="M20" s="19">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="32">
         <v>0.81907300000000005</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="30">
         <v>0.79954599999999998</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="30">
         <v>0.84276700000000004</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="30">
         <v>0.79537999999999998</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="11">
+      <c r="R20" s="12"/>
+      <c r="S20" s="13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="30">
         <v>0.77433700000000005</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="30">
         <v>0.85260100000000005</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="30">
         <v>0.273789</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="30">
         <v>4.1419819999999996</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9">
+      <c r="A21" s="19">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="15">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="13">
         <v>23</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="E21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="32">
         <v>0.80853399999999997</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="30">
         <v>0.79730100000000004</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="30">
         <v>0.82138699999999998</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="30">
         <v>0.795682</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9">
+      <c r="L21" s="12"/>
+      <c r="M21" s="19">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="32">
         <v>0.80676499999999995</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="30">
         <v>0.78007300000000002</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="30">
         <v>0.838422</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="30">
         <v>0.77510699999999999</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="11">
+      <c r="R21" s="12"/>
+      <c r="S21" s="13">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="30">
         <v>0.78602700000000003</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="30">
         <v>0.84997</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="30">
         <v>0.25862099999999999</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="30">
         <v>4.5663600000000004</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="A22" s="19">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>29</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <v>3</v>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="E22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="31">
         <v>0.81603000000000003</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="10">
         <v>0.81259199999999998</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="10">
         <v>0.81996199999999997</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="10">
         <v>0.81209699999999996</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="3"/>
+      <c r="M22" s="20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="31">
         <v>0.78417300000000001</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="10">
         <v>0.76687899999999998</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="10">
         <v>0.80280099999999999</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="10">
         <v>0.765544</v>
       </c>
-      <c r="S22" s="5">
+      <c r="R22" s="3"/>
+      <c r="S22" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="10">
         <v>0.74649299999999996</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="10">
         <v>0.81478700000000004</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="10">
         <v>0.29729299999999997</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="10">
         <v>5.0164119999999999</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="A23" s="20">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>27</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="31">
         <v>0.80482900000000002</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="10">
         <v>0.82716599999999996</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="10">
         <v>0.77928399999999998</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="10">
         <v>0.83037300000000003</v>
       </c>
-      <c r="M23">
+      <c r="L23" s="3"/>
+      <c r="M23" s="20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="31">
         <v>0.77359900000000004</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="10">
         <v>0.80732599999999999</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="10">
         <v>0.73427399999999998</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="10">
         <v>0.81292500000000001</v>
       </c>
-      <c r="S23" s="5">
+      <c r="R23" s="3"/>
+      <c r="S23" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="10">
         <v>0.72271799999999997</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="10">
         <v>0.84992199999999996</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="10">
         <v>0.35743200000000003</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="10">
         <v>4.4523830000000002</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+      <c r="A24" s="20">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M24">
+      <c r="H24" s="31">
+        <v>0.78000899999999995</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.78831200000000001</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.77050700000000005</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.78951099999999996</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="S24" s="5">
+      <c r="N24" s="14">
+        <v>0.77415699999999998</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.80362900000000004</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.73838499999999996</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0.80992900000000001</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="T24" s="7">
+        <v>0.75385800000000003</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0.88301099999999999</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0.33664100000000002</v>
+      </c>
+      <c r="W24" s="10">
+        <v>4.7703769999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="A25" s="20">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>41</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="31">
         <v>0.818052</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="10">
         <v>0.80713199999999996</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="10">
         <v>0.83055699999999999</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="10">
         <v>0.80554700000000001</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="13">
+      <c r="L25" s="4"/>
+      <c r="M25" s="41">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="31">
         <v>0.77484699999999995</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="10">
         <v>0.71531900000000004</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="10">
         <v>0.84551799999999999</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="10">
         <v>0.70417600000000002</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="13">
+      <c r="R25" s="4"/>
+      <c r="S25" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="10">
         <v>0.74214999999999998</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="10">
         <v>0.84745499999999996</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="10">
         <v>0.325965</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="10">
         <v>4.9179519999999997</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+      <c r="A26" s="20">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="14">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>39</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="31">
         <v>0.81128299999999998</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="10">
         <v>0.80616100000000002</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="10">
         <v>0.81714799999999999</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="10">
         <v>0.805419</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="13">
+      <c r="L26" s="4"/>
+      <c r="M26" s="41">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="31">
         <v>0.79124700000000003</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="10">
         <v>0.78718900000000003</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="10">
         <v>0.79661000000000004</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="10">
         <v>0.785883</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="13">
+      <c r="R26" s="4"/>
+      <c r="S26" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="10">
         <v>0.74726099999999995</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="10">
         <v>0.817658</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="10">
         <v>0.30153200000000002</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="10">
         <v>4.65083</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+      <c r="A27" s="20">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="14">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>29</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="31">
         <v>0.81093700000000002</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="10">
         <v>0.81588899999999998</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="10">
         <v>0.80527300000000002</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="10">
         <v>0.81660100000000002</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="13">
-        <f t="shared" ref="M27:M30" si="4">A27</f>
+      <c r="L27" s="4"/>
+      <c r="M27" s="41">
+        <f>A27</f>
         <v>25</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="31">
         <v>0.77807999999999999</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="10">
         <v>0.81198999999999999</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="10">
         <v>0.73768299999999998</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="10">
         <v>0.81847700000000001</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="13">
-        <f t="shared" ref="S27:S38" si="5">A27</f>
+      <c r="R27" s="4"/>
+      <c r="S27" s="11">
+        <f t="shared" ref="S27:S44" si="4">A27</f>
         <v>25</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="10">
         <v>0.70284800000000003</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="10">
         <v>0.75506300000000004</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="10">
         <v>0.29804700000000001</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="10">
         <v>4.621842</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="A28" s="20">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>29</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" t="b">
+      <c r="E28" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="3"/>
+      <c r="G28" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="31">
         <v>0.78295300000000001</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="10">
         <v>0.75024100000000005</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="10">
         <v>0.82037899999999997</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="10">
         <v>0.74552700000000005</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="13">
+      <c r="L28" s="4"/>
+      <c r="M28" s="41">
+        <f>A28</f>
+        <v>26</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0.77925599999999995</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.74685199999999996</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.81644899999999998</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0.74206399999999995</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="11">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="N28" s="3">
-        <v>0.77925599999999995</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.74685199999999996</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0.81644899999999998</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0.74206399999999995</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="T28" s="3">
+      <c r="T28" s="10">
         <v>0.75339500000000004</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="10">
         <v>0.82102799999999998</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="10">
         <v>0.29120699999999999</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="10">
         <v>5.1165929999999999</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+      <c r="A29" s="20">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="14">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>29</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" t="b">
+      <c r="E29" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="3"/>
+      <c r="G29" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="31">
         <v>0.81416299999999997</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="10">
         <v>0.78778099999999995</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="10">
         <v>0.84437200000000001</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="10">
         <v>0.78395300000000001</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="13">
+      <c r="L29" s="4"/>
+      <c r="M29" s="41">
+        <f>A29</f>
+        <v>27</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0.77302599999999999</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.71663600000000005</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.840341</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0.70571099999999998</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="11">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="N29" s="3">
-        <v>0.77302599999999999</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.71663600000000005</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0.840341</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0.70571099999999998</v>
-      </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="13">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="10">
         <v>0.73229999999999995</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="10">
         <v>0.82892999999999994</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="10">
         <v>0.33574300000000001</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="10">
         <v>5.2868009999999996</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="A30" s="20">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>35</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="E30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="20">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="31">
         <v>0.81470399999999998</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="10">
         <v>0.77790800000000004</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="10">
         <v>0.85680500000000004</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="10">
         <v>0.77260300000000004</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="13">
+      <c r="L30" s="4"/>
+      <c r="M30" s="41">
+        <f>A30</f>
+        <v>28</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0.76297300000000001</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.68120199999999997</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.85760800000000004</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0.66833900000000002</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="11">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="N30" s="3">
-        <v>0.76297300000000001</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.68120199999999997</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0.85760800000000004</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0.66833900000000002</v>
-      </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="13">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="T30" s="3">
+      <c r="T30" s="10">
         <v>0.71391400000000005</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="10">
         <v>0.786775</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="10">
         <v>0.31955</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="10">
         <v>5.5735349999999997</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+      <c r="A31" s="20">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="14">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>23</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>7</v>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="E31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="31">
         <v>0.78438799999999997</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="10">
         <v>0.76435299999999995</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="10">
         <v>0.80731799999999998</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="10">
         <v>0.76145799999999997</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="13">
+      <c r="L31" s="4"/>
+      <c r="M31" s="41">
         <f>A31</f>
         <v>29</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="31">
         <v>0.79316399999999998</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="10">
         <v>0.78698100000000004</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="10">
         <v>0.800543</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="10">
         <v>0.78578499999999996</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="13">
-        <f t="shared" si="5"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="11">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="10">
         <v>0.74502100000000004</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="10">
         <v>0.70894400000000002</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="10">
         <v>0.19947599999999999</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="10">
         <v>4.4615939999999998</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+      <c r="A32" s="20">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="14">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>5</v>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G37" si="6">A32</f>
+      <c r="E32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="20">
+        <f t="shared" ref="G32:G43" si="5">A32</f>
         <v>30</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="31">
         <v>0.78109799999999996</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="10">
         <v>0.73653299999999999</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="10">
         <v>0.83210399999999995</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="10">
         <v>0.73009100000000005</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="13">
-        <f t="shared" ref="M32:M38" si="7">A32</f>
+      <c r="L32" s="4"/>
+      <c r="M32" s="41">
+        <f t="shared" ref="M32:M44" si="6">A32</f>
         <v>30</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="31">
         <v>0.786188</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="10">
         <v>0.74129100000000003</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="10">
         <v>0.83936599999999995</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="10">
         <v>0.73301000000000005</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="13">
-        <f t="shared" si="5"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="11">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="10">
         <v>0.72965400000000002</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="10">
         <v>0.69428299999999998</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="10">
         <v>0.21379899999999999</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="10">
         <v>4.7235680000000002</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+      <c r="A33" s="20">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="14">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>21</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>5</v>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="E33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="20">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="H33" s="31">
+        <v>0.76278999999999997</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.69603300000000001</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.83918599999999999</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.68639499999999998</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="41">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="H33" s="3">
-        <v>0.76278999999999997</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.69603300000000001</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.83918599999999999</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.68639499999999998</v>
-      </c>
-      <c r="M33" s="13">
-        <f t="shared" si="7"/>
+      <c r="N33" s="31">
+        <v>0.76791600000000004</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.68774900000000005</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.86225099999999999</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0.67358200000000001</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="11">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="N33" s="3">
-        <v>0.76791600000000004</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0.68774900000000005</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0.86225099999999999</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0.67358200000000001</v>
-      </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="13">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="10">
         <v>0.699465</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="10">
         <v>0.60600900000000002</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="10">
         <v>0.162269</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="10">
         <v>5.1271430000000002</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+      <c r="A34" s="20">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="14">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>23</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>5</v>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="20">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0.80332599999999998</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.83016100000000004</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.77261999999999997</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.83403099999999997</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="41">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="H34" s="3">
-        <v>0.80332599999999998</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.83016100000000004</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0.77261999999999997</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.83403099999999997</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="13">
+      <c r="N34" s="31">
+        <v>0.80370600000000003</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.827878</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.77485899999999996</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0.83255199999999996</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="11">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0.768598</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0.76443300000000003</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0.21618100000000001</v>
+      </c>
+      <c r="W34" s="10">
+        <v>4.5108730000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="20">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="20">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="H35" s="31">
+        <v>0.76946800000000004</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0.74724000000000002</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.79169699999999998</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="41">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0.76907899999999996</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.79416399999999998</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.73854200000000003</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0.79961700000000002</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="11">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0.67390799999999995</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0.588812</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0.190807</v>
+      </c>
+      <c r="W35" s="10">
+        <v>5.7573689999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="20">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>25</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="20">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="H36" s="31">
+        <v>0.78841399999999995</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.76439100000000004</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.81591400000000003</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.76091399999999998</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="41">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0.78910999999999998</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.75695900000000005</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.82882</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="11">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.72295200000000004</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0.65912000000000004</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0.182115</v>
+      </c>
+      <c r="W36" s="10">
+        <v>5.2320099999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7">
+        <v>21</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="20">
+        <f>A37</f>
+        <v>35</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0.81345199999999995</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.77900999999999998</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.85289499999999996</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.77400999999999998</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="41">
+        <f>A37</f>
+        <v>35</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0.80691400000000002</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.79661499999999996</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.81776199999999999</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0.79606600000000005</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="11">
+        <f>A37</f>
+        <v>35</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0.75870199999999999</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0.87462399999999996</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0.32583400000000001</v>
+      </c>
+      <c r="W37" s="10">
+        <v>4.724901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="20">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7">
+        <v>35</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="20">
+        <f>A38</f>
+        <v>36</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0.81547400000000003</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.80247400000000002</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.83035999999999999</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.80058799999999997</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="41">
+        <f t="shared" ref="M38:M39" si="7">A38</f>
+        <v>36</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0.81107099999999999</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.78986000000000001</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.835368</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.786775</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="11">
+        <f t="shared" ref="S38:S39" si="8">A38</f>
+        <v>36</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.731603</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.90647599999999995</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.37983800000000001</v>
+      </c>
+      <c r="W38" s="10">
+        <v>4.5691119999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="20">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7">
+        <v>55</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="20">
+        <f>A39</f>
+        <v>37</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.77281900000000003</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.73328499999999996</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.81818199999999996</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.72745599999999999</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="41">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.80370600000000003</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0.827878</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0.77485899999999996</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0.83255199999999996</v>
-      </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="13">
+        <v>37</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0.80843399999999999</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0.77292300000000003</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.84975199999999995</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0.76711600000000002</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="11">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0.76524800000000004</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0.76639599999999997</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0.222799</v>
+      </c>
+      <c r="W39" s="10">
+        <v>4.7637660000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20">
+        <v>41</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="20">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0.768598</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0.76443300000000003</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0.21618100000000001</v>
-      </c>
-      <c r="W34" s="3">
-        <v>4.5108730000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.81547400000000003</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.80247400000000002</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.83035999999999999</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.80058799999999997</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="41">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="N40" s="31">
+        <v>0.80681400000000003</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.77500899999999995</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.84512900000000002</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.76849900000000004</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="11">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.731603</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0.90647599999999995</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0.37983800000000001</v>
+      </c>
+      <c r="W40" s="10">
+        <v>4.5691119999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="21">
         <v>42</v>
       </c>
-      <c r="B35">
+      <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C35">
+      <c r="C41" s="7">
         <v>23</v>
       </c>
-      <c r="D35">
+      <c r="D41" s="7">
         <v>3</v>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="E41" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="20">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.83229900000000001</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.81293899999999997</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.86190100000000003</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.80269599999999997</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="41">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="H35" s="3">
-        <v>0.83229900000000001</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.81293899999999997</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.86190100000000003</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0.80269599999999997</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="13">
-        <f t="shared" si="7"/>
+      <c r="N41" s="31">
+        <v>0.68957100000000005</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.56145500000000004</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.83584499999999995</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.54329799999999995</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="11">
+        <f>A41</f>
         <v>42</v>
       </c>
-      <c r="N35" s="3">
-        <v>0.68957100000000005</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.56145500000000004</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0.83584499999999995</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0.54329799999999995</v>
-      </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="13">
-        <f>A35</f>
-        <v>42</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T41" s="10">
         <v>0.620591</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U41" s="10">
         <v>0.50827</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V41" s="10">
         <v>0.18949099999999999</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W41" s="10">
         <v>5.4299850000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+    <row r="42" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="18">
         <v>43</v>
       </c>
-      <c r="B36">
+      <c r="B42" s="14">
         <v>1</v>
       </c>
-      <c r="C36">
+      <c r="C42" s="7">
         <v>23</v>
       </c>
-      <c r="D36">
+      <c r="D42" s="7">
         <v>3</v>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="E42" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="33">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="H42" s="31">
+        <v>0.83228599999999997</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.83204199999999995</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0.83265599999999995</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0.83191499999999996</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="42">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="H36" s="3">
-        <v>0.83228599999999997</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.83204199999999995</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.83265599999999995</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0.83191499999999996</v>
-      </c>
-      <c r="M36" s="13">
-        <f t="shared" si="7"/>
+      <c r="N42" s="31">
+        <v>0.767598</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.72323899999999997</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0.81793099999999996</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0.71726500000000004</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="11">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="N36" s="3">
+      <c r="T42" s="10">
         <v>0.767598</v>
       </c>
-      <c r="O36" s="3">
+      <c r="U42" s="10">
         <v>0.72323899999999997</v>
       </c>
-      <c r="P36" s="3">
+      <c r="V42" s="10">
         <v>0.81793099999999996</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="W42" s="10">
         <v>0.71726500000000004</v>
       </c>
-      <c r="S36" s="13">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0.767598</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0.72323899999999997</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0.81793099999999996</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0.71726500000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="G37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="M38" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="109" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="110" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="111" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="112" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="113" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="114" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="M43" s="5"/>
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="M44" s="5"/>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1"/>
+    </row>
     <row r="115" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="116" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="117" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="118" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="1"/>
+    <row r="119" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T2:T7 T9:T15">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2908,6 +3630,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T7 T9:T23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N7 N9:N23">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H23 H25:H27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N7 N9:N23 N25:N27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2919,7 +3689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H23">
+  <conditionalFormatting sqref="T2:T7 T9:T23 T25:T27">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2931,8 +3701,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N7 N9:N23">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="N2:N23 N25:N27">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2943,7 +3713,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
+  <conditionalFormatting sqref="T2:T23 T25:T27">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N23 N25:N27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H23 H25:H28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2955,31 +3749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N7 N9:N27">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T7 T9:T27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="H2:H23 H25:H31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2991,7 +3761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T27">
+  <conditionalFormatting sqref="N2:N23 N25:N31">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3003,7 +3773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="T2:T23 T25:T31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3015,8 +3785,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="H2:H23 H25:H34">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3027,8 +3797,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H31">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="N2:N23 N25:N34">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3039,8 +3809,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N31">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="T2:T23 T25:T34">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3051,7 +3821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T31">
+  <conditionalFormatting sqref="T2:T23 T37:T42 T25:T35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3063,7 +3833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H34">
+  <conditionalFormatting sqref="H2:H42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3075,7 +3845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N34">
+  <conditionalFormatting sqref="N2:N42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3087,7 +3857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T34">
+  <conditionalFormatting sqref="T2:T42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
